--- a/biology/Botanique/Lathyrus_cicera/Lathyrus_cicera.xlsx
+++ b/biology/Botanique/Lathyrus_cicera/Lathyrus_cicera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gessette, Jarosse
-Lathyrus cicera, la gessette ou jarosse, est une espèce de plantes herbacées vivaces de la famille des Fabaceae (sous-famille des Faboideae selon la classification phylogénétique). Elle est native d'Europe, d'Afrique du Nord, et d'Asie (notamment du Moyen-Orient). Elle a été introduite dans d'autres pays. Cette plante possède beaucoup de noms vernaculaires, comme gesse chiche, gesse garosse, gesse pois-chiche, gessette, jarosse, jarousse ou petite gesse[1].
-Ses graines et ses jeunes pousses sont comestibles[2]. Les plantes du genre Lathyrus peuvent causer le lathyrisme. Cette maladie est surtout provoquée par l'ingestion de Lathyrus sativus plutôt que de Lathyrus cicera cependant. 
+Lathyrus cicera, la gessette ou jarosse, est une espèce de plantes herbacées vivaces de la famille des Fabaceae (sous-famille des Faboideae selon la classification phylogénétique). Elle est native d'Europe, d'Afrique du Nord, et d'Asie (notamment du Moyen-Orient). Elle a été introduite dans d'autres pays. Cette plante possède beaucoup de noms vernaculaires, comme gesse chiche, gesse garosse, gesse pois-chiche, gessette, jarosse, jarousse ou petite gesse.
+Ses graines et ses jeunes pousses sont comestibles. Les plantes du genre Lathyrus peuvent causer le lathyrisme. Cette maladie est surtout provoquée par l'ingestion de Lathyrus sativus plutôt que de Lathyrus cicera cependant. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 décembre 2016)[3] (liste brute pouvant contenir des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 décembre 2016) (liste brute pouvant contenir des synonymes) :
 variété Lathyrus cicera var. cicera
 variété Lathyrus cicera var. lineatus Post
 variété Lathyrus cicera var. negevensis Plitmann
